--- a/Test case for manual.xlsx
+++ b/Test case for manual.xlsx
@@ -218,15 +218,6 @@
 Appium client</t>
   </si>
   <si>
-    <t>1. Launch Jabber Client-A
-2.Tap on down arrow on the top in
- Appium Client-A
-3. Select the desired status from the
- list in Client-A or enter custom
-4.Tap on “Done” button
-5.Appium Client-B will see the new presence status of Appium Client-A</t>
-  </si>
-  <si>
     <t>Appium Client-B should 
 see the change in
  presence status of 
@@ -252,7 +243,13 @@
  to make call to contact</t>
   </si>
   <si>
-    <t xml:space="preserve">1.. Launch Jabber Client-A &amp; 
+    <t>Appium Client-A should 
+be able to call user of 
+Appuim Client-B either 
+at Work or Mobile number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.. Launch Appuim Client-A &amp; 
 Appuim Client-B
 2. Enter the name of contact of 
 Appium Client-B in “Search Bar” of 
@@ -265,13 +262,7 @@
 </t>
   </si>
   <si>
-    <t>Appium Client-A should 
-be able to call user of 
-Appuim Client-B either 
-at Work or Mobile number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Launch Appium  Client-A &amp; Jabber Client-B
+    <t xml:space="preserve">1.Launch Appium  Client-A &amp; Appium Client-B
 2. Select the contact from contact list and click “arrow” icon
 3. Select contact of Appium Client-B from contact list in Appium Client-A and click “Arrow” icon
 4. Tap on Phone field from contact’s profile
@@ -281,6 +272,15 @@
 8. Cisco Appium for iPhone will be launched automatically to place a call
 Appium Client-B gets a call and answer it
 10. Call gets establish between Appium Client-A &amp; Client-B </t>
+  </si>
+  <si>
+    <t>1. Launch Appium Client-A
+2.Tap on down arrow on the top in
+ Appium Client-A
+3. Select the desired status from the
+ list in Client-A or enter custom
+4.Tap on “Done” button
+5.Appium Client-B will see the new presence status of Appium Client-A</t>
   </si>
 </sst>
 </file>
@@ -635,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -801,10 +801,10 @@
         <v>42</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="306" customHeight="1">
@@ -815,16 +815,16 @@
         <v>1.2</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="232.5" customHeight="1">
@@ -835,16 +835,16 @@
         <v>1.3</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
